--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/20/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-13.362</v>
+        <v>-12.294</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.084</v>
+        <v>-21.779</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.42</v>
+        <v>16.492</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.294</v>
+        <v>17.652</v>
       </c>
     </row>
     <row r="13">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.636</v>
+        <v>-21.863</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.862</v>
+        <v>-21.945</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.336</v>
+        <v>-11.54</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.94</v>
+        <v>-20.066</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.37</v>
+        <v>-20.198</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,35 +842,35 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.328</v>
+        <v>-12.591</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.732</v>
+        <v>16.954</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.692</v>
+        <v>-21.646</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.564</v>
+        <v>-11.969</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>16.884</v>
+        <v>17.053</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.546</v>
+        <v>-21.114</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-14.034</v>
+        <v>-13.309</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.206</v>
+        <v>-21.219</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.864</v>
+        <v>-13.133</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.272</v>
+        <v>-13.223</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.614</v>
+        <v>-12.728</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.948</v>
+        <v>-20.197</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.84</v>
+        <v>16.554</v>
       </c>
     </row>
     <row r="42">
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.304</v>
+        <v>-12.852</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.264</v>
+        <v>-11.422</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.644</v>
+        <v>16.305</v>
       </c>
     </row>
     <row r="51">
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.474</v>
+        <v>-11.133</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.746</v>
+        <v>-11.601</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.974</v>
+        <v>-21.845</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.84</v>
+        <v>16.781</v>
       </c>
     </row>
     <row r="54">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.484</v>
+        <v>-13.251</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,30 +1386,30 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.648</v>
+        <v>-13.445</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.342</v>
+        <v>16.378</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.176</v>
+        <v>-22.1</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.946</v>
+        <v>-13.813</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.79</v>
+        <v>16.408</v>
       </c>
     </row>
     <row r="58">
@@ -1426,12 +1426,12 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.498</v>
+        <v>16.545</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.224</v>
+        <v>-22.323</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-13.546</v>
+        <v>-13.048</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.49</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.314</v>
+        <v>17.652</v>
       </c>
     </row>
     <row r="64">
@@ -1528,12 +1528,12 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.512</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.558</v>
+        <v>-21.421</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.636</v>
+        <v>-21.783</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.756</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="71">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>17.042</v>
+        <v>17.046</v>
       </c>
     </row>
     <row r="73">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.364</v>
+        <v>-12.601</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.372</v>
+        <v>-12.462</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.886</v>
+        <v>-21.938</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.33</v>
+        <v>16.428</v>
       </c>
     </row>
     <row r="87">
@@ -1947,13 +1947,13 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.338</v>
+        <v>-10.676</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.402</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="90">
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.544</v>
+        <v>-12.957</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.622</v>
+        <v>-21.527</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.776</v>
+        <v>-11.085</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.866</v>
+        <v>-21.356</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.7</v>
+        <v>16.086</v>
       </c>
     </row>
     <row r="99">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.986</v>
+        <v>-22.016</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.556</v>
+        <v>16.393</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.434</v>
+        <v>16.513</v>
       </c>
     </row>
   </sheetData>
